--- a/output/face_features_dlib.xlsx
+++ b/output/face_features_dlib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,27 +461,59 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Eye Aspect Ratio</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Mouth Aspect Ratio</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Face Symmetry</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Eye-Nose-Chin Angle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Label</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>225.5416320278315</v>
+        <v>246.2141118800644</v>
       </c>
       <c r="B2" t="n">
-        <v>173.9661813488082</v>
+        <v>172.6058540843778</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7153768743871</v>
+        <v>291.1272573978603</v>
       </c>
       <c r="D2" t="n">
-        <v>422.5802721611046</v>
+        <v>398.893902784954</v>
       </c>
       <c r="E2" t="n">
-        <v>156.438486313311</v>
-      </c>
-      <c r="F2" t="inlineStr">
+        <v>174.4276354251241</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2780803513986247</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4466972908659158</v>
+      </c>
+      <c r="H2" t="n">
+        <v>501.4059292128704</v>
+      </c>
+      <c r="I2" t="n">
+        <v>53.63064009978363</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>fajri</t>
         </is>
@@ -489,21 +521,33 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>297.8370173247255</v>
+        <v>309.222052541176</v>
       </c>
       <c r="B3" t="n">
-        <v>212.1825224647548</v>
+        <v>212.9070538527245</v>
       </c>
       <c r="C3" t="n">
-        <v>342.2636410722004</v>
+        <v>348.6947088786981</v>
       </c>
       <c r="D3" t="n">
-        <v>355.4936404425003</v>
+        <v>468.9566696664963</v>
       </c>
       <c r="E3" t="n">
-        <v>241.1970149069014</v>
-      </c>
-      <c r="F3" t="inlineStr">
+        <v>248.4713263135205</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2224770553178083</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2910133218514271</v>
+      </c>
+      <c r="H3" t="n">
+        <v>610.5382680375657</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.178726329376174</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>fajri</t>
         </is>
@@ -511,21 +555,33 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>392.9402697046403</v>
+        <v>389.4704381878324</v>
       </c>
       <c r="B4" t="n">
-        <v>191.1265194854374</v>
+        <v>181.3518870716389</v>
       </c>
       <c r="C4" t="n">
-        <v>454.4776342131701</v>
+        <v>441.9739811346365</v>
       </c>
       <c r="D4" t="n">
-        <v>332.0170492424363</v>
+        <v>370.1340597975581</v>
       </c>
       <c r="E4" t="n">
-        <v>280.4014978561991</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>277.8722728161268</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2210877605987129</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2750502822213625</v>
+      </c>
+      <c r="H4" t="n">
+        <v>548.1774062422642</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36.9802087149733</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>fajri</t>
         </is>
@@ -533,21 +589,33 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>338.004109113747</v>
+        <v>333.669330658696</v>
       </c>
       <c r="B5" t="n">
-        <v>176.9240634520784</v>
+        <v>186.2857389689557</v>
       </c>
       <c r="C5" t="n">
-        <v>394.1766609021898</v>
+        <v>388.6526984339617</v>
       </c>
       <c r="D5" t="n">
-        <v>363.360940167633</v>
+        <v>426.8057788262786</v>
       </c>
       <c r="E5" t="n">
-        <v>287.2942742207022</v>
-      </c>
-      <c r="F5" t="inlineStr">
+        <v>281.1440911703463</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.158553994815346</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4044472318378241</v>
+      </c>
+      <c r="H5" t="n">
+        <v>559.8227987848447</v>
+      </c>
+      <c r="I5" t="n">
+        <v>43.00166036232756</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>fajri</t>
         </is>
@@ -555,21 +623,33 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>256.7292131583176</v>
+        <v>255.9158933017729</v>
       </c>
       <c r="B6" t="n">
-        <v>187.5065142901296</v>
+        <v>189.7684769546275</v>
       </c>
       <c r="C6" t="n">
-        <v>316.6204668052904</v>
+        <v>311.2314251485541</v>
       </c>
       <c r="D6" t="n">
-        <v>471.0805676681727</v>
+        <v>438.0218298861258</v>
       </c>
       <c r="E6" t="n">
-        <v>224.1539649437413</v>
-      </c>
-      <c r="F6" t="inlineStr">
+        <v>223.2935287911407</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3837010736114134</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3629500398418145</v>
+      </c>
+      <c r="H6" t="n">
+        <v>506.3665859187914</v>
+      </c>
+      <c r="I6" t="n">
+        <v>56.0405306870924</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>fajri</t>
         </is>
@@ -577,21 +657,33 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>290.5727103497505</v>
+        <v>288.0624932197874</v>
       </c>
       <c r="B7" t="n">
-        <v>167.4732381421794</v>
+        <v>166.9267345940196</v>
       </c>
       <c r="C7" t="n">
-        <v>333.1110325402028</v>
+        <v>337.4996296294265</v>
       </c>
       <c r="D7" t="n">
-        <v>334.3630391884075</v>
+        <v>358.523205509614</v>
       </c>
       <c r="E7" t="n">
-        <v>233.0193125043502</v>
-      </c>
-      <c r="F7" t="inlineStr">
+        <v>235.0191481560598</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2558984750754144</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2567377386732883</v>
+      </c>
+      <c r="H7" t="n">
+        <v>442.8298382876295</v>
+      </c>
+      <c r="I7" t="n">
+        <v>47.83354284835155</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>fajri</t>
         </is>
@@ -599,21 +691,33 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>268.2685221937155</v>
+        <v>274.7251151403688</v>
       </c>
       <c r="B8" t="n">
-        <v>186.5341460814105</v>
+        <v>181.1919489837868</v>
       </c>
       <c r="C8" t="n">
-        <v>324.7104556370183</v>
+        <v>318.3005497953153</v>
       </c>
       <c r="D8" t="n">
-        <v>313.1019042885812</v>
+        <v>396.1192145033682</v>
       </c>
       <c r="E8" t="n">
-        <v>225.4351347949117</v>
-      </c>
-      <c r="F8" t="inlineStr">
+        <v>226.2675407565124</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2844619234713378</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3039143659654062</v>
+      </c>
+      <c r="H8" t="n">
+        <v>507.3410482838052</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16.16396964306916</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>fajri</t>
         </is>
@@ -621,21 +725,33 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>201.9742832914901</v>
+        <v>204.2474670045574</v>
       </c>
       <c r="B9" t="n">
-        <v>120.2621910608876</v>
+        <v>115.0714887835566</v>
       </c>
       <c r="C9" t="n">
-        <v>231.5261540301657</v>
+        <v>231.4252363075384</v>
       </c>
       <c r="D9" t="n">
-        <v>288.5540367050259</v>
+        <v>281.4429310833549</v>
       </c>
       <c r="E9" t="n">
-        <v>171.1052307791904</v>
-      </c>
-      <c r="F9" t="inlineStr">
+        <v>176.1022430294401</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2759350969249062</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3204642788015169</v>
+      </c>
+      <c r="H9" t="n">
+        <v>321.6782093862419</v>
+      </c>
+      <c r="I9" t="n">
+        <v>61.05110317617167</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>fajri</t>
         </is>
@@ -643,21 +759,33 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>301.6931848381361</v>
+        <v>299.181708071273</v>
       </c>
       <c r="B10" t="n">
-        <v>165.8893563474846</v>
+        <v>166.8896009009814</v>
       </c>
       <c r="C10" t="n">
-        <v>346.6254462672929</v>
+        <v>345.6231473729733</v>
       </c>
       <c r="D10" t="n">
-        <v>322.8801138212673</v>
+        <v>358.6889708058749</v>
       </c>
       <c r="E10" t="n">
-        <v>240.4079865561874</v>
-      </c>
-      <c r="F10" t="inlineStr">
+        <v>235.306183514161</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2298228508985348</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2497816813517607</v>
+      </c>
+      <c r="H10" t="n">
+        <v>449.0464779460929</v>
+      </c>
+      <c r="I10" t="n">
+        <v>45.36499000657373</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>fajri</t>
         </is>
@@ -665,21 +793,33 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>367.6884248623797</v>
+        <v>367.0200191330773</v>
       </c>
       <c r="B11" t="n">
-        <v>173.3133201587358</v>
+        <v>172.4396924459801</v>
       </c>
       <c r="C11" t="n">
-        <v>428.8392239522873</v>
+        <v>428.0785441948708</v>
       </c>
       <c r="D11" t="n">
-        <v>284.6491017219467</v>
+        <v>319.7093201373961</v>
       </c>
       <c r="E11" t="n">
-        <v>270.0018518455012</v>
-      </c>
-      <c r="F11" t="inlineStr">
+        <v>261.0689564080724</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2399023434550787</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1816764417493617</v>
+      </c>
+      <c r="H11" t="n">
+        <v>511.078390119387</v>
+      </c>
+      <c r="I11" t="n">
+        <v>40.77252233187929</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>fajri</t>
         </is>
@@ -687,21 +827,33 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>390.5657577298746</v>
+        <v>389.3721798542423</v>
       </c>
       <c r="B12" t="n">
-        <v>228.6874535012556</v>
+        <v>228.9444596106656</v>
       </c>
       <c r="C12" t="n">
-        <v>441.2435608595325</v>
+        <v>439.2102457821312</v>
       </c>
       <c r="D12" t="n">
-        <v>465.4623746579548</v>
+        <v>491.1274004337267</v>
       </c>
       <c r="E12" t="n">
-        <v>337.0726924566866</v>
-      </c>
-      <c r="F12" t="inlineStr">
+        <v>331.0543761982312</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3110937114329233</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3223279702462943</v>
+      </c>
+      <c r="H12" t="n">
+        <v>626.2503097554386</v>
+      </c>
+      <c r="I12" t="n">
+        <v>47.59676597216028</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>nabil</t>
         </is>
@@ -709,21 +861,33 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>375.9799787813767</v>
+        <v>378.1504697574469</v>
       </c>
       <c r="B13" t="n">
-        <v>191.8802393019351</v>
+        <v>193.1839501103727</v>
       </c>
       <c r="C13" t="n">
-        <v>433.825955885537</v>
+        <v>440.6038129657981</v>
       </c>
       <c r="D13" t="n">
-        <v>458.1987411808909</v>
+        <v>481.8049654075372</v>
       </c>
       <c r="E13" t="n">
-        <v>428.337483767181</v>
-      </c>
-      <c r="F13" t="inlineStr">
+        <v>430.3359153033825</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1665606293458213</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2449241702359968</v>
+      </c>
+      <c r="H13" t="n">
+        <v>629.8986586355238</v>
+      </c>
+      <c r="I13" t="n">
+        <v>49.54693887469404</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>nabil</t>
         </is>
@@ -731,21 +895,33 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>401.2954716359948</v>
+        <v>405.0014060332246</v>
       </c>
       <c r="B14" t="n">
-        <v>213.2287522160296</v>
+        <v>212.8094007542495</v>
       </c>
       <c r="C14" t="n">
-        <v>469.1434322251565</v>
+        <v>468.2093548830479</v>
       </c>
       <c r="D14" t="n">
-        <v>482.2453783482758</v>
+        <v>507.3187446191746</v>
       </c>
       <c r="E14" t="n">
-        <v>425.677107676699</v>
-      </c>
-      <c r="F14" t="inlineStr">
+        <v>425.9213542427757</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.181686536845193</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1719566845758607</v>
+      </c>
+      <c r="H14" t="n">
+        <v>671.1894854938946</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50.46191876086765</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>nabil</t>
         </is>
@@ -753,21 +929,33 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>531.3617986938006</v>
+        <v>530.7220448491742</v>
       </c>
       <c r="B15" t="n">
-        <v>324.0467370745184</v>
+        <v>324.8127903353439</v>
       </c>
       <c r="C15" t="n">
-        <v>620.8234853805064</v>
+        <v>621.8104212700201</v>
       </c>
       <c r="D15" t="n">
-        <v>645.7608872150668</v>
+        <v>702.2575676758668</v>
       </c>
       <c r="E15" t="n">
-        <v>453.1335344023879</v>
-      </c>
-      <c r="F15" t="inlineStr">
+        <v>454.1860852117775</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2823910279181508</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3642499342134736</v>
+      </c>
+      <c r="H15" t="n">
+        <v>852.3605396105255</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45.80766255373094</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>nabil</t>
         </is>
@@ -775,21 +963,33 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>589.1908057289724</v>
+        <v>596.0471877292939</v>
       </c>
       <c r="B16" t="n">
-        <v>354.3225691720629</v>
+        <v>351.9974966591681</v>
       </c>
       <c r="C16" t="n">
-        <v>652.031410286345</v>
+        <v>672.6323810225019</v>
       </c>
       <c r="D16" t="n">
-        <v>672.9953405448374</v>
+        <v>747.4594418989907</v>
       </c>
       <c r="E16" t="n">
-        <v>524.0152669531681</v>
-      </c>
-      <c r="F16" t="inlineStr">
+        <v>532.0009398487939</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2579243746854659</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2990400246077242</v>
+      </c>
+      <c r="H16" t="n">
+        <v>948.5593974064404</v>
+      </c>
+      <c r="I16" t="n">
+        <v>43.52946477400836</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>nabil</t>
         </is>
@@ -797,21 +997,33 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>532.5223521651984</v>
+        <v>536.4345253616698</v>
       </c>
       <c r="B17" t="n">
-        <v>341.9812655055685</v>
+        <v>340.5740637530031</v>
       </c>
       <c r="C17" t="n">
-        <v>605.2769613986642</v>
+        <v>618.9031911373538</v>
       </c>
       <c r="D17" t="n">
-        <v>643.7805104839787</v>
+        <v>767.1150460179754</v>
       </c>
       <c r="E17" t="n">
-        <v>499.2173875177025</v>
-      </c>
-      <c r="F17" t="inlineStr">
+        <v>479.3099206150442</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3153220536284366</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3638125297940174</v>
+      </c>
+      <c r="H17" t="n">
+        <v>902.7058960139602</v>
+      </c>
+      <c r="I17" t="n">
+        <v>34.91173935370026</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>nabil</t>
         </is>
@@ -819,21 +1031,33 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>530.7513018772959</v>
+        <v>543.1265710883811</v>
       </c>
       <c r="B18" t="n">
-        <v>370.6344514544463</v>
+        <v>378.3674900962401</v>
       </c>
       <c r="C18" t="n">
-        <v>625.7171245858626</v>
+        <v>625.5665592085305</v>
       </c>
       <c r="D18" t="n">
-        <v>901.4456770332729</v>
+        <v>851.9149163451466</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7396227805896</v>
-      </c>
-      <c r="F18" t="inlineStr">
+        <v>452.5151931151041</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2606881078213712</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4070274290779609</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1033.420569800639</v>
+      </c>
+      <c r="I18" t="n">
+        <v>59.05491922839862</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>nabil</t>
         </is>
@@ -841,21 +1065,33 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>577.3649433224864</v>
+        <v>595.6187492385078</v>
       </c>
       <c r="B19" t="n">
-        <v>323.0385445029245</v>
+        <v>328.3306072456861</v>
       </c>
       <c r="C19" t="n">
-        <v>699.3369717096331</v>
+        <v>706.8959753740293</v>
       </c>
       <c r="D19" t="n">
-        <v>744.1711355678516</v>
+        <v>757.87338106599</v>
       </c>
       <c r="E19" t="n">
-        <v>624.0520811598981</v>
-      </c>
-      <c r="F19" t="inlineStr">
+        <v>640.0624969485402</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1441056150569689</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1403750999426496</v>
+      </c>
+      <c r="H19" t="n">
+        <v>997.1289100397604</v>
+      </c>
+      <c r="I19" t="n">
+        <v>53.33547017427406</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>nabil</t>
         </is>
@@ -863,21 +1099,33 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>726.4141189584782</v>
+        <v>736.9129678749194</v>
       </c>
       <c r="B20" t="n">
-        <v>374.3247799639528</v>
+        <v>397.8188312924167</v>
       </c>
       <c r="C20" t="n">
-        <v>825.4427418058747</v>
+        <v>832.8753087947798</v>
       </c>
       <c r="D20" t="n">
-        <v>702.1281582569409</v>
+        <v>835.3037002222235</v>
       </c>
       <c r="E20" t="n">
-        <v>623.0650046343479</v>
-      </c>
-      <c r="F20" t="inlineStr">
+        <v>653.1959889650273</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.31141616404606</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3717023929341197</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1115.012105571711</v>
+      </c>
+      <c r="I20" t="n">
+        <v>41.8639304641498</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>nabil</t>
         </is>
@@ -885,21 +1133,33 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>576.0696813561515</v>
+        <v>572.8758106644444</v>
       </c>
       <c r="B21" t="n">
-        <v>356.1786261618851</v>
+        <v>358.006319345564</v>
       </c>
       <c r="C21" t="n">
-        <v>651.8684836682933</v>
+        <v>651.2855594898447</v>
       </c>
       <c r="D21" t="n">
-        <v>845.6447098567115</v>
+        <v>831.113703204514</v>
       </c>
       <c r="E21" t="n">
-        <v>536.8500721803063</v>
-      </c>
-      <c r="F21" t="inlineStr">
+        <v>546.3744137493995</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2727120970866971</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.352991091635846</v>
+      </c>
+      <c r="H21" t="n">
+        <v>982.073997120378</v>
+      </c>
+      <c r="I21" t="n">
+        <v>56.71521222421342</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>nabil</t>
         </is>
